--- a/xlsx/迪士尼_intext.xlsx
+++ b/xlsx/迪士尼_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="387">
   <si>
     <t>迪士尼</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%89%B9%E8%BF%AA%E5%A3%AB%E5%B0%BC%E8%A3%BD%E7%89%87%E5%BB%A0</t>
   </si>
   <si>
-    <t>華特迪士尼製片廠</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_迪士尼</t>
+    <t>华特迪士尼制片厂</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_迪士尼</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Walt_Disney_Studios_(Burbank)</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8%E4%BB%A3%E8%99%9F</t>
   </si>
   <si>
-    <t>股票代號</t>
+    <t>股票代号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
   </si>
   <si>
-    <t>紐約證券交易所</t>
+    <t>纽约证券交易所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E7%90%BC%E6%96%AF%E5%B7%A5%E4%B8%9A%E5%B9%B3%E5%9D%87%E6%8C%87%E6%95%B0</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E8%BE%A6%E4%BA%BA</t>
   </si>
   <si>
-    <t>創辦人</t>
+    <t>创办人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%89%B9%C2%B7%E8%BF%AA%E5%A3%AB%E5%B0%BC</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%89%BE%E6%A0%BC</t>
   </si>
   <si>
-    <t>羅伯特·艾格</t>
+    <t>罗伯特·艾格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E9%95%BF</t>
@@ -137,9 +137,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A</t>
   </si>
   <si>
@@ -149,13 +146,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>大眾媒體</t>
+    <t>大众媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>娛樂</t>
+    <t>娱乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E7%BA%BF%E7%94%B5%E8%A7%86</t>
@@ -197,7 +194,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%B7%9A%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>無線電視</t>
+    <t>无线电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
@@ -215,7 +212,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -227,7 +224,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E5%89%8D%E6%81%AF%E5%89%8D%E5%88%A9%E6%BD%A4</t>
   </si>
   <si>
-    <t>稅前息前利潤</t>
+    <t>税前息前利润</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -239,19 +236,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2</t>
   </si>
   <si>
-    <t>資產</t>
+    <t>资产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%9D%B1%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>股東權益</t>
+    <t>股东权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%89%B9%E8%BF%AA%E5%A3%AB%E5%B0%BC%E5%BD%B1%E6%A5%AD%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>華特迪士尼影業集團</t>
+    <t>华特迪士尼影业集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%89%B9%E8%BF%AA%E5%A3%AB%E5%B0%BC%E4%B9%90%E5%9B%AD%E5%8F%8A%E5%BA%A6%E5%81%87%E5%8C%BA</t>
@@ -299,13 +296,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E4%B8%BB%E8%A6%81%E9%9B%BB%E5%BD%B1%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>北美主要電影公司</t>
+    <t>北美主要电影公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%89%E5%A4%A7%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>美國三大電視網</t>
+    <t>美国三大电视网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B9%BF%E6%92%AD%E5%85%AC%E5%8F%B8</t>
@@ -335,7 +332,7 @@
     <t>https://zh.wikipedia.org/wiki/A%2BE%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>A+E電視網</t>
+    <t>A+E电视网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Freeform</t>
@@ -359,7 +356,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%AB%E5%A8%81%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>漫威娛樂</t>
+    <t>漫威娱乐</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Disney_Music_Group</t>
@@ -377,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%A3%AB%E5%B0%BCABC%E9%9B%BB%E8%A6%96%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>迪士尼ABC電視集團</t>
+    <t>迪士尼ABC电视集团</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Radio_Disney</t>
@@ -449,13 +446,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E8%BF%AA%E5%A3%AB%E5%B0%BC%E5%BA%A6%E5%81%87%E5%8D%80</t>
   </si>
   <si>
-    <t>東京迪士尼度假區</t>
+    <t>东京迪士尼度假区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E8%BF%AA%E5%A3%AB%E5%B0%BC%E6%A8%82%E5%9C%92%E5%BA%A6%E5%81%87%E5%8D%80</t>
   </si>
   <si>
-    <t>巴黎迪士尼樂園度假區</t>
+    <t>巴黎迪士尼乐园度假区</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Euro_Disney_S.C.A.</t>
@@ -467,13 +464,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E8%BF%AA%E5%A3%AB%E5%B0%BC%E6%A8%82%E5%9C%92%E5%BA%A6%E5%81%87%E5%8D%80</t>
   </si>
   <si>
-    <t>香港迪士尼樂園度假區</t>
+    <t>香港迪士尼乐园度假区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E8%BF%AA%E5%A3%AB%E5%B0%BC%E5%BA%A6%E5%81%87%E5%8D%80</t>
   </si>
   <si>
-    <t>上海迪士尼度假區</t>
+    <t>上海迪士尼度假区</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Disney_Vacation_Club</t>
@@ -485,7 +482,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%A3%AB%E5%B0%BC%E9%83%B5%E8%BC%AA</t>
   </si>
   <si>
-    <t>迪士尼郵輪</t>
+    <t>迪士尼邮轮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E6%96%AF%E7%89%B9%E5%9B%BD%E9%99%85%E9%9B%86%E5%9B%A2</t>
@@ -497,7 +494,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%89%B9%E8%BF%AA%E5%A3%AB%E5%B0%BC%E5%8B%95%E7%95%AB%E5%B7%A5%E4%BD%9C%E5%AE%A4</t>
   </si>
   <si>
-    <t>華特迪士尼動畫工作室</t>
+    <t>华特迪士尼动画工作室</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/DisneyToon_Studios</t>
@@ -557,7 +554,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E5%85%8B%C2%B7%E8%89%BE%E6%96%AF%E7%B4%8D</t>
   </si>
   <si>
-    <t>邁克·艾斯納</t>
+    <t>迈克·艾斯纳</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Raymond_Watson</t>
@@ -593,9 +590,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%89%B9%E8%BF%AA%E5%A3%AB%E5%B0%BC%E6%A8%82%E5%9C%92%E5%8F%8A%E5%BA%A6%E5%81%87%E5%8D%80</t>
   </si>
   <si>
-    <t>華特迪士尼樂園及度假區</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Disney_Interactive_Studios</t>
   </si>
   <si>
@@ -641,9 +635,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%89%B9%C2%B7%E8%BF%AA%E5%A3%AB%E5%B0%BC</t>
   </si>
   <si>
-    <t>華特·迪士尼</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Alan_N._Braverman</t>
   </si>
   <si>
@@ -653,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E5%9F%B7%E8%A1%8C%E5%AE%98</t>
   </si>
   <si>
-    <t>首席執行官</t>
+    <t>首席执行官</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jay_Rasulo</t>
@@ -683,9 +674,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>董事長</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Fred_Langhammer</t>
   </si>
   <si>
@@ -725,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%89%B9%E8%BF%AA%E5%A3%AB%E5%B0%BC%E5%B7%A5%E4%BD%9C%E5%AE%A4%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>華特迪士尼工作室電影</t>
+    <t>华特迪士尼工作室电影</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Walt_Disney_Studios_Home_Entertainment</t>
@@ -737,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%A3%AB%E5%B0%BC%E5%82%B3%E5%AA%92%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>迪士尼傳媒集團</t>
+    <t>迪士尼传媒集团</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ABC_Entertainment</t>
@@ -785,25 +773,22 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%A3%AB%E5%B0%BC%E9%83%B5%E8%BC%AA%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>迪士尼郵輪公司</t>
+    <t>迪士尼邮轮公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%89%B9%E8%BF%AA%E5%A3%AB%E5%B0%BC%E5%B9%BB%E6%83%B3%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>華特迪士尼幻想工程</t>
+    <t>华特迪士尼幻想工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%A3%AB%E5%B0%BC%E6%A8%82%E5%9C%92%E5%BA%A6%E5%81%87%E5%8D%80</t>
   </si>
   <si>
-    <t>迪士尼樂園度假區</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%A3%AB%E5%B0%BC%E5%8D%80%E5%9F%9F%E5%A8%9B%E6%A8%82%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>迪士尼區域娛樂公司</t>
+    <t>迪士尼区域娱乐公司</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Disney_Consumer_Products</t>
@@ -851,7 +836,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%81%89%E5%BD%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>博偉影業</t>
+    <t>博伟影业</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Blip_(website)</t>
@@ -881,7 +866,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>蘋果公司</t>
+    <t>苹果公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%9B%9B</t>
@@ -893,7 +878,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%8B%E9%80%9A</t>
   </si>
   <si>
-    <t>美國運通</t>
+    <t>美国运通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Visa</t>
@@ -917,7 +902,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E4%BD%9B%E9%BE%8D</t>
   </si>
   <si>
-    <t>雪佛龍</t>
+    <t>雪佛龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E7%A7%91%E7%B3%BB%E7%BB%9F</t>
@@ -977,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E7%94%9F%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>強生公司</t>
+    <t>强生公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%A0%B9%E5%A4%A7%E9%80%9A</t>
@@ -995,7 +980,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E5%85%8B%E8%97%A5%E5%BB%A0</t>
   </si>
   <si>
-    <t>默克藥廠</t>
+    <t>默克药厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BD%AF</t>
@@ -1007,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%9D%E7%91%9E</t>
   </si>
   <si>
-    <t>輝瑞</t>
+    <t>辉瑞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9D%E6%B4%81</t>
@@ -1019,13 +1004,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E8%A1%8C%E5%AE%B6%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>旅行家集團</t>
+    <t>旅行家集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%81%A5%E5%BA%B7%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>聯合健康保險</t>
+    <t>联合健康保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E6%8A%80%E6%9C%AF%E5%85%AC%E5%8F%B8</t>
@@ -1037,7 +1022,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E8%A8%8A</t>
   </si>
   <si>
-    <t>威訊</t>
+    <t>威讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B0%94%E7%8E%9B</t>
@@ -1049,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E9%A6%B3%E4%BA%9E</t>
   </si>
   <si>
-    <t>奧馳亞</t>
+    <t>奥驰亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A4%AB%E9%A3%9F%E5%93%81</t>
@@ -1061,7 +1046,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%9A%9B%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>美國國際集團</t>
+    <t>美国国际集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%83%9F%E8%8D%89%E5%85%AC%E5%8F%B8</t>
@@ -1109,7 +1094,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E5%90%88%E7%A2%B3%E5%8C%96%E7%89%A9</t>
   </si>
   <si>
-    <t>美國聯合碳化物</t>
+    <t>美国联合碳化物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%A0%E6%99%AE</t>
@@ -1127,13 +1112,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>美國銀行</t>
+    <t>美国银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1151,7 +1136,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1163,7 +1148,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1181,7 +1166,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%89%B9%E8%BF%AA%E5%A3%AB%E5%B0%BC%E5%85%AC%E5%8F%B8</t>
@@ -2112,7 +2097,7 @@
         <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
         <v>7</v>
@@ -2138,10 +2123,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -2167,10 +2152,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2196,10 +2181,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2225,10 +2210,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -2254,10 +2239,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>5</v>
@@ -2283,10 +2268,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>7</v>
@@ -2312,10 +2297,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>6</v>
@@ -2341,10 +2326,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2370,10 +2355,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>5</v>
@@ -2399,10 +2384,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -2428,10 +2413,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2457,10 +2442,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2486,10 +2471,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2515,10 +2500,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>6</v>
@@ -2544,10 +2529,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2573,10 +2558,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2602,10 +2587,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>3</v>
@@ -2631,10 +2616,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2660,10 +2645,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>4</v>
@@ -2689,10 +2674,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>3</v>
@@ -2718,10 +2703,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>5</v>
@@ -2747,10 +2732,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2776,10 +2761,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2805,10 +2790,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2834,10 +2819,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2863,10 +2848,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2892,10 +2877,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2921,10 +2906,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2950,10 +2935,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2979,10 +2964,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3008,10 +2993,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3037,10 +3022,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>4</v>
@@ -3066,10 +3051,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3095,10 +3080,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3153,10 +3138,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3182,10 +3167,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>78</v>
+      </c>
+      <c r="F57" t="s">
         <v>79</v>
-      </c>
-      <c r="F57" t="s">
-        <v>80</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3211,10 +3196,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>8</v>
@@ -3240,10 +3225,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -3269,10 +3254,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -3298,10 +3283,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -3327,10 +3312,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -3356,10 +3341,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3385,10 +3370,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>10</v>
@@ -3414,10 +3399,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3443,10 +3428,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3472,10 +3457,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3501,10 +3486,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3530,10 +3515,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3559,10 +3544,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3588,10 +3573,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3617,10 +3602,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>7</v>
@@ -3646,10 +3631,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -3675,10 +3660,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3704,10 +3689,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3733,10 +3718,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3762,10 +3747,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3791,10 +3776,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3820,10 +3805,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -3849,10 +3834,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3878,10 +3863,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3907,10 +3892,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>104</v>
+      </c>
+      <c r="F82" t="s">
         <v>105</v>
-      </c>
-      <c r="F82" t="s">
-        <v>106</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3936,10 +3921,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>76</v>
+      </c>
+      <c r="F83" t="s">
         <v>77</v>
-      </c>
-      <c r="F83" t="s">
-        <v>78</v>
       </c>
       <c r="G83" t="n">
         <v>5</v>
@@ -3965,10 +3950,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>158</v>
+      </c>
+      <c r="F84" t="s">
         <v>159</v>
-      </c>
-      <c r="F84" t="s">
-        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3994,10 +3979,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>128</v>
+      </c>
+      <c r="F85" t="s">
         <v>129</v>
-      </c>
-      <c r="F85" t="s">
-        <v>130</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -4023,10 +4008,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>160</v>
+      </c>
+      <c r="F86" t="s">
         <v>161</v>
-      </c>
-      <c r="F86" t="s">
-        <v>162</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4052,10 +4037,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>162</v>
+      </c>
+      <c r="F87" t="s">
         <v>163</v>
-      </c>
-      <c r="F87" t="s">
-        <v>164</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4081,10 +4066,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>164</v>
+      </c>
+      <c r="F88" t="s">
         <v>165</v>
-      </c>
-      <c r="F88" t="s">
-        <v>166</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4110,10 +4095,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>166</v>
+      </c>
+      <c r="F89" t="s">
         <v>167</v>
-      </c>
-      <c r="F89" t="s">
-        <v>168</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4168,10 +4153,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>168</v>
+      </c>
+      <c r="F91" t="s">
         <v>169</v>
-      </c>
-      <c r="F91" t="s">
-        <v>170</v>
       </c>
       <c r="G91" t="n">
         <v>3</v>
@@ -4197,10 +4182,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>170</v>
+      </c>
+      <c r="F92" t="s">
         <v>171</v>
-      </c>
-      <c r="F92" t="s">
-        <v>172</v>
       </c>
       <c r="G92" t="n">
         <v>3</v>
@@ -4226,10 +4211,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>172</v>
+      </c>
+      <c r="F93" t="s">
         <v>173</v>
-      </c>
-      <c r="F93" t="s">
-        <v>174</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4255,10 +4240,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>174</v>
+      </c>
+      <c r="F94" t="s">
         <v>175</v>
-      </c>
-      <c r="F94" t="s">
-        <v>176</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4284,10 +4269,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>176</v>
+      </c>
+      <c r="F95" t="s">
         <v>177</v>
-      </c>
-      <c r="F95" t="s">
-        <v>178</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4313,10 +4298,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>178</v>
+      </c>
+      <c r="F96" t="s">
         <v>179</v>
-      </c>
-      <c r="F96" t="s">
-        <v>180</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -4342,10 +4327,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>180</v>
+      </c>
+      <c r="F97" t="s">
         <v>181</v>
-      </c>
-      <c r="F97" t="s">
-        <v>182</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4371,10 +4356,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>182</v>
+      </c>
+      <c r="F98" t="s">
         <v>183</v>
-      </c>
-      <c r="F98" t="s">
-        <v>184</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4400,10 +4385,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>184</v>
+      </c>
+      <c r="F99" t="s">
         <v>185</v>
-      </c>
-      <c r="F99" t="s">
-        <v>186</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4429,10 +4414,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>186</v>
+      </c>
+      <c r="F100" t="s">
         <v>187</v>
-      </c>
-      <c r="F100" t="s">
-        <v>188</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4458,10 +4443,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>188</v>
+      </c>
+      <c r="F101" t="s">
         <v>189</v>
-      </c>
-      <c r="F101" t="s">
-        <v>190</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4487,10 +4472,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>76</v>
+      </c>
+      <c r="F102" t="s">
         <v>77</v>
-      </c>
-      <c r="F102" t="s">
-        <v>78</v>
       </c>
       <c r="G102" t="n">
         <v>7</v>
@@ -4516,10 +4501,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F103" t="s">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4545,10 +4530,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>110</v>
+      </c>
+      <c r="F104" t="s">
         <v>111</v>
-      </c>
-      <c r="F104" t="s">
-        <v>112</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4574,10 +4559,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F105" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -4603,13 +4588,13 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F106" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -4632,10 +4617,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F107" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4661,10 +4646,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F108" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4690,10 +4675,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F109" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G109" t="n">
         <v>11</v>
@@ -4719,10 +4704,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F110" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4748,10 +4733,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F111" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4777,10 +4762,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F112" t="s">
-        <v>208</v>
+        <v>30</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4806,10 +4791,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F113" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4864,10 +4849,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F115" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4893,10 +4878,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F116" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4922,10 +4907,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F117" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4951,10 +4936,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F118" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4980,10 +4965,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F119" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5009,10 +4994,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F120" t="s">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5038,10 +5023,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F121" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5067,10 +5052,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F122" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5096,10 +5081,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F123" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5125,10 +5110,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F124" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5154,10 +5139,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F125" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5212,10 +5197,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>158</v>
+      </c>
+      <c r="F127" t="s">
         <v>159</v>
-      </c>
-      <c r="F127" t="s">
-        <v>160</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5241,10 +5226,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F128" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5270,10 +5255,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F129" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5299,10 +5284,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F130" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5328,10 +5313,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>134</v>
+      </c>
+      <c r="F131" t="s">
         <v>135</v>
-      </c>
-      <c r="F131" t="s">
-        <v>136</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5357,10 +5342,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F132" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5386,10 +5371,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>118</v>
+      </c>
+      <c r="F133" t="s">
         <v>119</v>
-      </c>
-      <c r="F133" t="s">
-        <v>120</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5415,10 +5400,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F134" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5444,10 +5429,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F135" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5473,10 +5458,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>104</v>
+      </c>
+      <c r="F136" t="s">
         <v>105</v>
-      </c>
-      <c r="F136" t="s">
-        <v>106</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5502,10 +5487,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F137" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5531,10 +5516,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F138" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5560,10 +5545,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F139" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5589,10 +5574,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F140" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5618,10 +5603,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F141" t="s">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5647,10 +5632,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F142" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5676,10 +5661,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F143" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5705,10 +5690,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5734,10 +5719,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F145" t="s">
-        <v>260</v>
+        <v>139</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5763,10 +5748,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F146" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5792,10 +5777,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F147" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G147" t="n">
         <v>7</v>
@@ -5821,10 +5806,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F148" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5850,10 +5835,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F149" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5879,10 +5864,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F150" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -5908,10 +5893,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F151" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5937,10 +5922,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F152" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -5966,10 +5951,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F153" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5995,10 +5980,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F154" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6024,10 +6009,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F155" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6053,10 +6038,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>112</v>
+      </c>
+      <c r="F156" t="s">
         <v>113</v>
-      </c>
-      <c r="F156" t="s">
-        <v>114</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6082,10 +6067,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F157" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6111,10 +6096,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F158" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G158" t="n">
         <v>6</v>
@@ -6140,10 +6125,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F159" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6169,10 +6154,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F160" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6198,10 +6183,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F161" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6227,10 +6212,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F162" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6256,10 +6241,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F163" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6285,10 +6270,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F164" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6314,10 +6299,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F165" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6343,10 +6328,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F166" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6372,10 +6357,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F167" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6401,10 +6386,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F168" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6430,10 +6415,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F169" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6459,10 +6444,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F170" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6488,10 +6473,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F171" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6517,10 +6502,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F172" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6546,10 +6531,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F173" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6575,10 +6560,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F174" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6604,10 +6589,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F175" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6633,10 +6618,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F176" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6662,10 +6647,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F177" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6691,10 +6676,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F178" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6720,10 +6705,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F179" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6749,10 +6734,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F180" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6778,10 +6763,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F181" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6807,10 +6792,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F182" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6836,10 +6821,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F183" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6865,10 +6850,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F184" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6894,10 +6879,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F185" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6923,10 +6908,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F186" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6952,10 +6937,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F187" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6981,10 +6966,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F188" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7010,10 +6995,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F189" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7039,10 +7024,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F190" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7068,10 +7053,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F191" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7097,10 +7082,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F192" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7126,10 +7111,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F193" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -7155,10 +7140,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F194" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7184,10 +7169,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F195" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7213,10 +7198,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F196" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7242,10 +7227,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F197" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7271,10 +7256,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F198" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7300,10 +7285,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F199" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7329,10 +7314,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F200" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7358,10 +7343,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F201" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7387,10 +7372,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F202" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7416,10 +7401,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F203" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G203" t="n">
         <v>3</v>
@@ -7445,10 +7430,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F204" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7474,10 +7459,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F205" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7503,10 +7488,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F206" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7532,10 +7517,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F207" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7561,10 +7546,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F208" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7590,10 +7575,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F209" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7619,10 +7604,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F210" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7648,10 +7633,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F211" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7677,10 +7662,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F212" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G212" t="n">
         <v>6</v>
@@ -7706,10 +7691,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F213" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="G213" t="n">
         <v>3</v>
